--- a/models/calculation engines/economic_overlay/outputs/choosen_mine/Rank_by_AA_processing_cost.xlsx
+++ b/models/calculation engines/economic_overlay/outputs/choosen_mine/Rank_by_AA_processing_cost.xlsx
@@ -558,70 +558,70 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10.43234379142625</v>
+        <v>10.45416318635281</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G2" t="n">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H2" t="n">
+        <v>66</v>
+      </c>
+      <c r="I2" t="n">
         <v>78</v>
       </c>
-      <c r="I2" t="n">
-        <v>94</v>
-      </c>
       <c r="J2" t="n">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="K2" t="n">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="L2" t="n">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="M2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N2" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="O2" t="n">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P2" t="n">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="Q2" t="n">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="R2" t="n">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="S2" t="n">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="T2" t="n">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="U2" t="n">
+        <v>196</v>
+      </c>
+      <c r="V2" t="n">
         <v>208</v>
       </c>
-      <c r="V2" t="n">
-        <v>223</v>
-      </c>
       <c r="W2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -631,7 +631,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.811795113809215</v>
+        <v>9.834548155105756</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -640,61 +640,61 @@
         <v>7</v>
       </c>
       <c r="E3" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F3" t="n">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="G3" t="n">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="H3" t="n">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I3" t="n">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="J3" t="n">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="K3" t="n">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="L3" t="n">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="M3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N3" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O3" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P3" t="n">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="Q3" t="n">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="R3" t="n">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="S3" t="n">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="T3" t="n">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="U3" t="n">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="V3" t="n">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="W3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -704,7 +704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.138821491683055</v>
+        <v>9.156391197352919</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -713,61 +713,61 @@
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F4" t="n">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="G4" t="n">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="H4" t="n">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="I4" t="n">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="J4" t="n">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="K4" t="n">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="L4" t="n">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="M4" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N4" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="O4" t="n">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="P4" t="n">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="Q4" t="n">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="R4" t="n">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="S4" t="n">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="T4" t="n">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="U4" t="n">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="V4" t="n">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="W4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -777,70 +777,70 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.428581950109734</v>
+        <v>8.437097249924284</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F5" t="n">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G5" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H5" t="n">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="I5" t="n">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="J5" t="n">
+        <v>149</v>
+      </c>
+      <c r="K5" t="n">
+        <v>172</v>
+      </c>
+      <c r="L5" t="n">
+        <v>184</v>
+      </c>
+      <c r="M5" t="n">
+        <v>22</v>
+      </c>
+      <c r="N5" t="n">
+        <v>42</v>
+      </c>
+      <c r="O5" t="n">
+        <v>80</v>
+      </c>
+      <c r="P5" t="n">
+        <v>140</v>
+      </c>
+      <c r="Q5" t="n">
         <v>159</v>
       </c>
-      <c r="K5" t="n">
-        <v>181</v>
-      </c>
-      <c r="L5" t="n">
-        <v>194</v>
-      </c>
-      <c r="M5" t="n">
-        <v>23</v>
-      </c>
-      <c r="N5" t="n">
-        <v>47</v>
-      </c>
-      <c r="O5" t="n">
-        <v>90</v>
-      </c>
-      <c r="P5" t="n">
-        <v>147</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>171</v>
-      </c>
       <c r="R5" t="n">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="S5" t="n">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="T5" t="n">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="U5" t="n">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="V5" t="n">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="W5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -850,70 +850,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.75467513281789</v>
+        <v>7.753916615590999</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F6" t="n">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G6" t="n">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="H6" t="n">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="I6" t="n">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="J6" t="n">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="K6" t="n">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="L6" t="n">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="M6" t="n">
         <v>28</v>
       </c>
       <c r="N6" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="O6" t="n">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="P6" t="n">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="Q6" t="n">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="R6" t="n">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S6" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="T6" t="n">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="U6" t="n">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="V6" t="n">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="W6" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
@@ -923,67 +923,67 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.154754223821947</v>
+        <v>7.146686767618963</v>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F7" t="n">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G7" t="n">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H7" t="n">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="I7" t="n">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="J7" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K7" t="n">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L7" t="n">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="M7" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N7" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O7" t="n">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="P7" t="n">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="Q7" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R7" t="n">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="S7" t="n">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="T7" t="n">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="U7" t="n">
+        <v>284</v>
+      </c>
+      <c r="V7" t="n">
         <v>296</v>
-      </c>
-      <c r="V7" t="n">
-        <v>308</v>
       </c>
       <c r="W7" t="n">
         <v>32</v>
@@ -996,67 +996,67 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.641573103834406</v>
+        <v>6.628902294742623</v>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E8" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F8" t="n">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G8" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H8" t="n">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I8" t="n">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J8" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K8" t="n">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="L8" t="n">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="M8" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N8" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O8" t="n">
         <v>136</v>
       </c>
       <c r="P8" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Q8" t="n">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="R8" t="n">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="S8" t="n">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="T8" t="n">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="U8" t="n">
+        <v>307</v>
+      </c>
+      <c r="V8" t="n">
         <v>318</v>
-      </c>
-      <c r="V8" t="n">
-        <v>331</v>
       </c>
       <c r="W8" t="n">
         <v>38</v>
@@ -1069,67 +1069,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.213918592234864</v>
+        <v>6.199235541751619</v>
       </c>
       <c r="C9" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D9" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E9" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F9" t="n">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G9" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H9" t="n">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I9" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J9" t="n">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K9" t="n">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="L9" t="n">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M9" t="n">
         <v>51</v>
       </c>
       <c r="N9" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O9" t="n">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="P9" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q9" t="n">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="R9" t="n">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="S9" t="n">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="T9" t="n">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="U9" t="n">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="V9" t="n">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="W9" t="n">
         <v>46</v>
@@ -1142,70 +1142,70 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.864031156059455</v>
+        <v>5.849447121190248</v>
       </c>
       <c r="C10" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D10" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E10" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F10" t="n">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G10" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H10" t="n">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="I10" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="J10" t="n">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K10" t="n">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="L10" t="n">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="M10" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N10" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="O10" t="n">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="P10" t="n">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q10" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="R10" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="S10" t="n">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="T10" t="n">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="U10" t="n">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="V10" t="n">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="W10" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11">
@@ -1215,70 +1215,70 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.581834784397747</v>
+        <v>5.568893389563018</v>
       </c>
       <c r="C11" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D11" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E11" t="n">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F11" t="n">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="G11" t="n">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="H11" t="n">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="I11" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J11" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K11" t="n">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="L11" t="n">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M11" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="N11" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="O11" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="P11" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q11" t="n">
         <v>275</v>
       </c>
       <c r="R11" t="n">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="S11" t="n">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="T11" t="n">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="U11" t="n">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="V11" t="n">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="W11" t="n">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12">
@@ -1288,70 +1288,70 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.35704925781691</v>
+        <v>5.346762012691582</v>
       </c>
       <c r="C12" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D12" t="n">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E12" t="n">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="F12" t="n">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="G12" t="n">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="H12" t="n">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="I12" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J12" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K12" t="n">
         <v>312</v>
       </c>
       <c r="L12" t="n">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M12" t="n">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="N12" t="n">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="O12" t="n">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="P12" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q12" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="R12" t="n">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="S12" t="n">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="T12" t="n">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="U12" t="n">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="V12" t="n">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="W12" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13">
@@ -1361,70 +1361,70 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.180090012911951</v>
+        <v>5.173012245571537</v>
       </c>
       <c r="C13" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D13" t="n">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E13" t="n">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="F13" t="n">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="G13" t="n">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="H13" t="n">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="I13" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="J13" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K13" t="n">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L13" t="n">
         <v>342</v>
       </c>
       <c r="M13" t="n">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="N13" t="n">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="O13" t="n">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="P13" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q13" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="R13" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="S13" t="n">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="T13" t="n">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="U13" t="n">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="V13" t="n">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="W13" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14">
@@ -1434,70 +1434,70 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.042337968115827</v>
+        <v>5.038649358876158</v>
       </c>
       <c r="C14" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D14" t="n">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E14" t="n">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="F14" t="n">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="G14" t="n">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="H14" t="n">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="I14" t="n">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="J14" t="n">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K14" t="n">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L14" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M14" t="n">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="O14" t="n">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="P14" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Q14" t="n">
         <v>314</v>
       </c>
       <c r="R14" t="n">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="S14" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="T14" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="U14" t="n">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="V14" t="n">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="W14" t="n">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15">
@@ -1507,70 +1507,70 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.936107640587633</v>
+        <v>4.935686319872472</v>
       </c>
       <c r="C15" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D15" t="n">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E15" t="n">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="F15" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="G15" t="n">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="H15" t="n">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="I15" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="J15" t="n">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K15" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L15" t="n">
         <v>363</v>
       </c>
       <c r="M15" t="n">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="N15" t="n">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="O15" t="n">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="P15" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q15" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="R15" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="S15" t="n">
         <v>368</v>
       </c>
       <c r="T15" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U15" t="n">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="V15" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="W15" t="n">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16">
@@ -1580,70 +1580,70 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.854478716833431</v>
+        <v>4.856969059701494</v>
       </c>
       <c r="C16" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D16" t="n">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E16" t="n">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="F16" t="n">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="G16" t="n">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="H16" t="n">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="I16" t="n">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="J16" t="n">
         <v>334</v>
       </c>
       <c r="K16" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L16" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M16" t="n">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="N16" t="n">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="O16" t="n">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="P16" t="n">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q16" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="R16" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="S16" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="T16" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="U16" t="n">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="V16" t="n">
         <v>409</v>
       </c>
       <c r="W16" t="n">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17">
@@ -1653,61 +1653,61 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.791051480420596</v>
+        <v>4.795929798551478</v>
       </c>
       <c r="C17" t="n">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D17" t="n">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E17" t="n">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="F17" t="n">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="G17" t="n">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="H17" t="n">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="I17" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="J17" t="n">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="K17" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L17" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M17" t="n">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="N17" t="n">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="O17" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="P17" t="n">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q17" t="n">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="R17" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="S17" t="n">
         <v>381</v>
       </c>
       <c r="T17" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="U17" t="n">
         <v>407</v>
@@ -1716,7 +1716,7 @@
         <v>413</v>
       </c>
       <c r="W17" t="n">
-        <v>111</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18">
@@ -1726,58 +1726,58 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.739588305217119</v>
+        <v>4.74623124538483</v>
       </c>
       <c r="C18" t="n">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D18" t="n">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="E18" t="n">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="F18" t="n">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="G18" t="n">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="H18" t="n">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="I18" t="n">
+        <v>325</v>
+      </c>
+      <c r="J18" t="n">
+        <v>350</v>
+      </c>
+      <c r="K18" t="n">
+        <v>370</v>
+      </c>
+      <c r="L18" t="n">
+        <v>382</v>
+      </c>
+      <c r="M18" t="n">
+        <v>127</v>
+      </c>
+      <c r="N18" t="n">
+        <v>187</v>
+      </c>
+      <c r="O18" t="n">
+        <v>257</v>
+      </c>
+      <c r="P18" t="n">
         <v>321</v>
       </c>
-      <c r="J18" t="n">
-        <v>347</v>
-      </c>
-      <c r="K18" t="n">
-        <v>369</v>
-      </c>
-      <c r="L18" t="n">
-        <v>383</v>
-      </c>
-      <c r="M18" t="n">
-        <v>113</v>
-      </c>
-      <c r="N18" t="n">
-        <v>173</v>
-      </c>
-      <c r="O18" t="n">
-        <v>246</v>
-      </c>
-      <c r="P18" t="n">
-        <v>319</v>
-      </c>
       <c r="Q18" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="R18" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="S18" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T18" t="n">
         <v>399</v>
@@ -1786,10 +1786,10 @@
         <v>408</v>
       </c>
       <c r="V18" t="n">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="W18" t="n">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19">
@@ -1799,61 +1799,61 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.693274917048557</v>
+        <v>4.701034105618809</v>
       </c>
       <c r="C19" t="n">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D19" t="n">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="E19" t="n">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F19" t="n">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="G19" t="n">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="H19" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="I19" t="n">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="J19" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K19" t="n">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="L19" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="M19" t="n">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="N19" t="n">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="O19" t="n">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="P19" t="n">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="Q19" t="n">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="R19" t="n">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="S19" t="n">
         <v>390</v>
       </c>
       <c r="T19" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="U19" t="n">
         <v>412</v>
@@ -1862,7 +1862,7 @@
         <v>416</v>
       </c>
       <c r="W19" t="n">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20">
@@ -1872,70 +1872,70 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.642065839413932</v>
+        <v>4.650348079280689</v>
       </c>
       <c r="C20" t="n">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D20" t="n">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="E20" t="n">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="F20" t="n">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="G20" t="n">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="H20" t="n">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="I20" t="n">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="J20" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K20" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L20" t="n">
         <v>393</v>
       </c>
       <c r="M20" t="n">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="N20" t="n">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="O20" t="n">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="P20" t="n">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q20" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="R20" t="n">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="S20" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="T20" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="U20" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="V20" t="n">
         <v>418</v>
       </c>
       <c r="W20" t="n">
-        <v>126</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21">
@@ -1945,55 +1945,55 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.447320093769219</v>
+        <v>4.455449176159257</v>
       </c>
       <c r="C21" t="n">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="D21" t="n">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="E21" t="n">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="F21" t="n">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="G21" t="n">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="H21" t="n">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="I21" t="n">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="J21" t="n">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K21" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L21" t="n">
         <v>411</v>
       </c>
       <c r="M21" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="N21" t="n">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="O21" t="n">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="P21" t="n">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="Q21" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="R21" t="n">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="S21" t="n">
         <v>410</v>
@@ -2008,7 +2008,7 @@
         <v>420</v>
       </c>
       <c r="W21" t="n">
-        <v>152</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
